--- a/app/リリース/MySimpleCamera説明書_160529.xlsx
+++ b/app/リリース/MySimpleCamera説明書_160529.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="7" r:id="rId1"/>
@@ -2276,50 +2276,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>485775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6629400" y="257175"/>
-          <a:ext cx="2266950" cy="4029075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -2413,50 +2369,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11772900" y="257175"/>
-          <a:ext cx="2266950" cy="4029075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -2476,7 +2388,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2506,50 +2418,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12039600" y="257175"/>
-          <a:ext cx="2266950" cy="4029075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -2569,7 +2437,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2613,7 +2481,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2657,7 +2525,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2687,50 +2555,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1085850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12039600" y="257175"/>
-          <a:ext cx="2266950" cy="4029075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>40425</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -2750,7 +2574,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2794,7 +2618,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2838,7 +2662,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2882,7 +2706,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3195,10 +3019,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:C21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3327,14 +3154,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:G312"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5889,17 +5719,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:G312"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -8449,17 +8282,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:G312"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -11009,17 +10845,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:G311"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -13561,8 +13400,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>